--- a/biology/Médecine/Conduites_alimentaires_chez_l'enfant_et_l'adolescent/Conduites_alimentaires_chez_l'enfant_et_l'adolescent.xlsx
+++ b/biology/Médecine/Conduites_alimentaires_chez_l'enfant_et_l'adolescent/Conduites_alimentaires_chez_l'enfant_et_l'adolescent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conduites_alimentaires_chez_l%27enfant_et_l%27adolescent</t>
+          <t>Conduites_alimentaires_chez_l'enfant_et_l'adolescent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les conduites alimentaires des enfants et des adolescents sont étudiées par les psychologues et les nutritionnistes. Les conduites alimentaires de l'enfant et de l'adolescent réfèrent au développement des goûts et préférences alimentaires ainsi qu'aux conséquences des choix alimentaires sur la santé (en particulier sur l'obésité et le surpoids). Les interactions avec l'environnement, la famille, le milieu scolaire, la culture et les habitudes alimentaires de la population environnante, y jouent un rôle essentiel.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conduites_alimentaires_chez_l%27enfant_et_l%27adolescent</t>
+          <t>Conduites_alimentaires_chez_l'enfant_et_l'adolescent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Développement du goût avant la naissance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les conduites alimentaires du bébé qui va naître peuvent être influencées par la nutrition de sa mère durant sa grossesse. Dans liquide amniotique qui l'entoure, le fœtus perçoit déjà les odeurs et montre des préférences pour ces odeurs familières après sa naissance (parfum de la mère, certains aliments consommés régulièrement durant la grossesse[1]).
-Certains nourrissons et jeune enfants montrent une forte appétence pour le sel alimentaire, une envie de sel ou appétence au sel (ou addiction au sel, selon l'auteur B. Stuckey) qui persiste durant l'enfance et l'âge adulte[2], fort nuisible à la santé dans le long terme[3]. Nicolaidis et al. (1990) ont observé que ce phénomène chez des enfants dont les mères avaient souffert de nausées et vomissements très fréquents pendant leur grossesse et l'expliquent par la déshydratation extracellulaire dont le fœtus a souffert[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les conduites alimentaires du bébé qui va naître peuvent être influencées par la nutrition de sa mère durant sa grossesse. Dans liquide amniotique qui l'entoure, le fœtus perçoit déjà les odeurs et montre des préférences pour ces odeurs familières après sa naissance (parfum de la mère, certains aliments consommés régulièrement durant la grossesse).
+Certains nourrissons et jeune enfants montrent une forte appétence pour le sel alimentaire, une envie de sel ou appétence au sel (ou addiction au sel, selon l'auteur B. Stuckey) qui persiste durant l'enfance et l'âge adulte, fort nuisible à la santé dans le long terme. Nicolaidis et al. (1990) ont observé que ce phénomène chez des enfants dont les mères avaient souffert de nausées et vomissements très fréquents pendant leur grossesse et l'expliquent par la déshydratation extracellulaire dont le fœtus a souffert.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conduites_alimentaires_chez_l%27enfant_et_l%27adolescent</t>
+          <t>Conduites_alimentaires_chez_l'enfant_et_l'adolescent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Nutrition et malnutrition intra-utérine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'alimentation de l'humain commence dans le ventre de sa mère. La malnutrition de la mère pendant la grossesse augmente le risque de mortalité des enfants à naître, durant la période périnatale. La malnutrition de la mère augmente le risque que l'enfant naisse prématuré, ait un faible poids suivant un retard de croissance intra-utérin et soit suivi d'un retard de croissance staturo-pondérale et d'un retard de développement général qui touchera le cerveau.
-La malnutrition intra-utérine et précoce (néo-natale et infantile précoce) peut avoir des effets néfastes jusqu'à l'âge adulte. Ainsi une étude de Moore et al. (1997) menée en Gambie, indique que les adultes nés durant les saisons de famine ont un risque dix fois plus élevé de mourir que ceux nés à une autre saison la même année[5]. Des études conduites par Ezra Susser, Richard Neugebauer et Hans W. Hoek suggèrent que les enfants nés pendant la grande période de famine aux Pays-Bas en 1944 présentent des troubles de la personnalité (de type schizophrénique et personnalité anti-sociale), plus fréquemment que leurs pairs qui ne sont pas nés pendant cette période de famine[6]. Dans les années 1980, des chercheurs découvraient qu'une carence en acide folique (vitamine B9, présente surtout dans les fruits et légumes) pouvait entraîner des défaillances dans le développement du tube neural chez l'embryon, durant les toutes premières semaines de la grossesse.
+La malnutrition intra-utérine et précoce (néo-natale et infantile précoce) peut avoir des effets néfastes jusqu'à l'âge adulte. Ainsi une étude de Moore et al. (1997) menée en Gambie, indique que les adultes nés durant les saisons de famine ont un risque dix fois plus élevé de mourir que ceux nés à une autre saison la même année. Des études conduites par Ezra Susser, Richard Neugebauer et Hans W. Hoek suggèrent que les enfants nés pendant la grande période de famine aux Pays-Bas en 1944 présentent des troubles de la personnalité (de type schizophrénique et personnalité anti-sociale), plus fréquemment que leurs pairs qui ne sont pas nés pendant cette période de famine. Dans les années 1980, des chercheurs découvraient qu'une carence en acide folique (vitamine B9, présente surtout dans les fruits et légumes) pouvait entraîner des défaillances dans le développement du tube neural chez l'embryon, durant les toutes premières semaines de la grossesse.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Conduites_alimentaires_chez_l%27enfant_et_l%27adolescent</t>
+          <t>Conduites_alimentaires_chez_l'enfant_et_l'adolescent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +593,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation du nourrisson avant le sevrage
-À la naissance et dans les premiers mois de la vie, les enfants ne peuvent pas assimiler de nourriture solide et sont nourris par allaitement (au sein) ce qui leur permet de bénéficier du lait maternel et comporte de nombreux avantages, en particulier une bonne protection contre les infections. D'autres enfants sont nourris au biberon pour des raisons de santé (mères souffrant de maladies transmissibles par le lait maternel comme le Sida, la tuberculose ou d'intoxication comme les mères consommant des drogues) ou par choix maternel. La nourriture au biberon ne pose pas de risque pour le développement du nourrisson[7].
-Entre la naissance et l'âge de 4 mois, le nourrisson double son poids, ses organes se développent rapidement. Ces changements requièrent de grandes quantités d'énergie et de nutriments[8]. Le développement du cerveau requiert de grands apports en phospholipides, cholestérol, glycolipides et protéines qui sont les principaux constituants des neurones et de la myéline. Les acides gras polyinsaturés (AGPI) omega-3 (ou n-3 ; ω3) et omega-6 (n-6 ; ω6) augmentent la flexibilité et les fonctions des membranes des cellules neuronales et gliales. Ces nutriments pourraient avoir des conséquences sur le développement mental ultérieur du nourrisson, développement cognitif ou santé mentale, quoi que cette question continue de faire l'objet de débats et de recherches[9].
-Sevrage
-La transition entre l'alimentation au lait maternel et la nourriture solide s'appelle le sevrage du bébé. Les recommandations concernant l'âge de sevrage ont beaucoup varié en fonction des époques et des connaissances en nutrition et en médecine. En 2001, l'OMS a publié une directive recommandant une alimentation au lait maternel exclusive jusqu'à l'âge de six mois suivie d'un sevrage progressif à partir de six mois[1]. Ces recommandations n'ont pas changé depuis lors (OMS, 2016[10]). Le sevrage à six mois est recommandé par les nutritionnistes pour éviter les carences en fer qui peut entraîner des problèmes d'anémie et retards psychomoteurs[8].
+          <t>Alimentation du nourrisson avant le sevrage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la naissance et dans les premiers mois de la vie, les enfants ne peuvent pas assimiler de nourriture solide et sont nourris par allaitement (au sein) ce qui leur permet de bénéficier du lait maternel et comporte de nombreux avantages, en particulier une bonne protection contre les infections. D'autres enfants sont nourris au biberon pour des raisons de santé (mères souffrant de maladies transmissibles par le lait maternel comme le Sida, la tuberculose ou d'intoxication comme les mères consommant des drogues) ou par choix maternel. La nourriture au biberon ne pose pas de risque pour le développement du nourrisson.
+Entre la naissance et l'âge de 4 mois, le nourrisson double son poids, ses organes se développent rapidement. Ces changements requièrent de grandes quantités d'énergie et de nutriments. Le développement du cerveau requiert de grands apports en phospholipides, cholestérol, glycolipides et protéines qui sont les principaux constituants des neurones et de la myéline. Les acides gras polyinsaturés (AGPI) omega-3 (ou n-3 ; ω3) et omega-6 (n-6 ; ω6) augmentent la flexibilité et les fonctions des membranes des cellules neuronales et gliales. Ces nutriments pourraient avoir des conséquences sur le développement mental ultérieur du nourrisson, développement cognitif ou santé mentale, quoi que cette question continue de faire l'objet de débats et de recherches.
 </t>
         </is>
       </c>
@@ -592,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Conduites_alimentaires_chez_l%27enfant_et_l%27adolescent</t>
+          <t>Conduites_alimentaires_chez_l'enfant_et_l'adolescent</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,17 +626,94 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Comportements alimentaires du nourrisson (allaitement, biberon et sevrage)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sevrage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La transition entre l'alimentation au lait maternel et la nourriture solide s'appelle le sevrage du bébé. Les recommandations concernant l'âge de sevrage ont beaucoup varié en fonction des époques et des connaissances en nutrition et en médecine. En 2001, l'OMS a publié une directive recommandant une alimentation au lait maternel exclusive jusqu'à l'âge de six mois suivie d'un sevrage progressif à partir de six mois. Ces recommandations n'ont pas changé depuis lors (OMS, 2016). Le sevrage à six mois est recommandé par les nutritionnistes pour éviter les carences en fer qui peut entraîner des problèmes d'anémie et retards psychomoteurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conduites_alimentaires_chez_l'enfant_et_l'adolescent</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conduites_alimentaires_chez_l%27enfant_et_l%27adolescent</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Comportements alimentaires de l'enfant</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Interactions parent - enfant
-Les comportements alimentaires des enfants (du sevrage à l'adolescence) engagent fortement les interactions parent-enfant. Le déjeuner et le dîner familial, loin d'être uniquement des moments de partage et de plaisir, sont souvent source de conflit entre l'enfant qui ne veut pas manger et ses parents qui veulent le forcer ou l'inciter à manger des aliments que l'enfant n'aime pas. De tels conflits sont transitoires et normaux. Toutefois, si les parents forcent l'enfant à manger contre son gré, les enfants peuvent vomir, s'étrangler, renforcer leur comportement de refus. De tels conflits, s'ils s'aggravent, peuvent mener à des problèmes de conduites alimentaires et des problèmes de malnutrition à long terme[8].
-Des études montrent qu'un aliment nouveau doit être présenté plusieurs fois à un enfant avant qu'il ne soit accepté et finalement apprécié (mais il n'existe pas de consensus sur la manière d'inciter l'enfant à essayer cet aliment nouveau)[1],[11].
-Néophobie alimentaire : le refus des aliments nouveaux
-Jusqu'à l'âge de six ou sept ans, il est normal qu'un enfant fasse preuve de néophobie alimentaire quand des aliments nouveaux lui sont présentés. L'encourager à finir ses épinards en lui faisant miroiter le dessert sucré a l'effet opposé, appelé l'effet de sur-justification (over-justification, terme utilisé par le chercheur John Prescott) : le légume devient moins attractif et le dessert plus attractif pour l'enfant[11].
-En 2015, une revue de 31 articles expérimentaux sur le sujet conclut que les parents flexibles vis-à-vis de la nourriture de leur enfant (ni trop restrictifs, ni trop indulgents, ni hyper-protecteurs) arrivent aux meilleurs résultats : leurs enfants souffrent moins souvent de problèmes d'obésité ou de surpoids quelques années plus tard[12].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Interactions parent - enfant</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les comportements alimentaires des enfants (du sevrage à l'adolescence) engagent fortement les interactions parent-enfant. Le déjeuner et le dîner familial, loin d'être uniquement des moments de partage et de plaisir, sont souvent source de conflit entre l'enfant qui ne veut pas manger et ses parents qui veulent le forcer ou l'inciter à manger des aliments que l'enfant n'aime pas. De tels conflits sont transitoires et normaux. Toutefois, si les parents forcent l'enfant à manger contre son gré, les enfants peuvent vomir, s'étrangler, renforcer leur comportement de refus. De tels conflits, s'ils s'aggravent, peuvent mener à des problèmes de conduites alimentaires et des problèmes de malnutrition à long terme.
+Des études montrent qu'un aliment nouveau doit être présenté plusieurs fois à un enfant avant qu'il ne soit accepté et finalement apprécié (mais il n'existe pas de consensus sur la manière d'inciter l'enfant à essayer cet aliment nouveau),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conduites_alimentaires_chez_l'enfant_et_l'adolescent</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conduites_alimentaires_chez_l%27enfant_et_l%27adolescent</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Comportements alimentaires de l'enfant</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Néophobie alimentaire : le refus des aliments nouveaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'à l'âge de six ou sept ans, il est normal qu'un enfant fasse preuve de néophobie alimentaire quand des aliments nouveaux lui sont présentés. L'encourager à finir ses épinards en lui faisant miroiter le dessert sucré a l'effet opposé, appelé l'effet de sur-justification (over-justification, terme utilisé par le chercheur John Prescott) : le légume devient moins attractif et le dessert plus attractif pour l'enfant.
+En 2015, une revue de 31 articles expérimentaux sur le sujet conclut que les parents flexibles vis-à-vis de la nourriture de leur enfant (ni trop restrictifs, ni trop indulgents, ni hyper-protecteurs) arrivent aux meilleurs résultats : leurs enfants souffrent moins souvent de problèmes d'obésité ou de surpoids quelques années plus tard.
 </t>
         </is>
       </c>
